--- a/EvaluationData/Q4.2_AmountOfElements.xlsx
+++ b/EvaluationData/Q4.2_AmountOfElements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Desktop\Masterarbeit\UncertaintyImpactAnalysis\EvaluationData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8EAE21-5E33-4F28-8477-1D97CCA12867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3F78EC-0408-49E6-A349-CB8695B64F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22830" yWindow="2220" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -851,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/EvaluationData/Q4.2_AmountOfElements.xlsx
+++ b/EvaluationData/Q4.2_AmountOfElements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Desktop\Masterarbeit\UncertaintyImpactAnalysis\EvaluationData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CDF96B-C02B-409E-B843-A54E994A7736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4B9141-594B-4FC2-99F4-613452B7B4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -462,6 +462,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -562,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -574,24 +577,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -611,6 +602,24 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -893,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,58 +925,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="11" t="s">
         <v>94</v>
       </c>
       <c r="N1"/>
     </row>
     <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="M2" s="16" t="s">
+      <c r="K2" s="10"/>
+      <c r="M2" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -976,17 +985,17 @@
       <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="20">
         <f>28/111</f>
         <v>0.25225225225225223</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="16">
         <v>17</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="20">
         <f>17/111</f>
         <v>0.15315315315315314</v>
       </c>
@@ -998,26 +1007,26 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="20"/>
       <c r="M4" t="s">
         <v>14</v>
       </c>
@@ -1026,14 +1035,14 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1042,10 +1051,10 @@
       <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="20"/>
       <c r="M5" t="s">
         <v>20</v>
       </c>
@@ -1054,7 +1063,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1070,11 +1079,11 @@
       <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="M6" s="19" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="20"/>
+      <c r="M6" s="15" t="s">
         <v>97</v>
       </c>
       <c r="N6">
@@ -1082,7 +1091,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1098,11 +1107,11 @@
       <c r="F7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="M7" s="19" t="s">
+      <c r="G7" s="16"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="20"/>
+      <c r="M7" s="15" t="s">
         <v>98</v>
       </c>
       <c r="N7">
@@ -1110,27 +1119,27 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="M8" s="19" t="s">
+      <c r="G8" s="16"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="20"/>
+      <c r="M8" s="15" t="s">
         <v>22</v>
       </c>
       <c r="N8">
@@ -1138,27 +1147,27 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="M9" s="19" t="s">
+      <c r="G9" s="16"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="20"/>
+      <c r="M9" s="15" t="s">
         <v>99</v>
       </c>
       <c r="N9">
@@ -1166,7 +1175,9 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M10" s="19" t="s">
+      <c r="H10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="M10" s="15" t="s">
         <v>68</v>
       </c>
       <c r="N10">
@@ -1174,7 +1185,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1192,21 +1203,21 @@
       <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="20">
         <f>28/111</f>
         <v>0.25225225225225223</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="16">
         <v>16</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="20">
         <f>16/111</f>
         <v>0.14414414414414414</v>
       </c>
-      <c r="M11" s="19" t="s">
+      <c r="M11" s="15" t="s">
         <v>72</v>
       </c>
       <c r="N11">
@@ -1214,7 +1225,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1230,11 +1241,11 @@
       <c r="F12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="M12" s="19" t="s">
+      <c r="G12" s="16"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="20"/>
+      <c r="M12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="N12">
@@ -1242,7 +1253,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
@@ -1258,11 +1269,11 @@
       <c r="F13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="M13" s="19" t="s">
+      <c r="G13" s="16"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="20"/>
+      <c r="M13" s="15" t="s">
         <v>71</v>
       </c>
       <c r="N13">
@@ -1270,7 +1281,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="1" t="s">
         <v>35</v>
       </c>
@@ -1283,21 +1294,21 @@
       <c r="E14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="20"/>
       <c r="M14"/>
-      <c r="N14" s="17">
+      <c r="N14" s="13">
         <f>SUM(N3:N13)</f>
         <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
@@ -1313,15 +1324,15 @@
       <c r="F15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="20"/>
       <c r="M15"/>
       <c r="N15"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
@@ -1334,20 +1345,20 @@
       <c r="E16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18" t="s">
+      <c r="G16" s="16"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="20"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="1" t="s">
         <v>51</v>
       </c>
@@ -1363,17 +1374,21 @@
       <c r="F17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="20"/>
       <c r="M17"/>
       <c r="N17" t="s">
         <v>101</v>
       </c>
     </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H18" s="21"/>
+      <c r="J18" s="21"/>
+    </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="17" t="s">
         <v>79</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1391,23 +1406,23 @@
       <c r="F19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="20">
         <f>34/111</f>
         <v>0.30630630630630629</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="16">
         <v>11</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="20">
         <f>11/111</f>
         <v>9.90990990990991E-2</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="1" t="s">
         <v>55</v>
       </c>
@@ -1423,13 +1438,13 @@
       <c r="F20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="20"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="1" t="s">
         <v>56</v>
       </c>
@@ -1445,13 +1460,13 @@
       <c r="F21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="20"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="1" t="s">
         <v>57</v>
       </c>
@@ -1467,13 +1482,13 @@
       <c r="F22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="20"/>
     </row>
     <row r="23" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="1" t="s">
         <v>58</v>
       </c>
@@ -1489,13 +1504,13 @@
       <c r="F23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="20"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="1" t="s">
         <v>59</v>
       </c>
@@ -1511,13 +1526,13 @@
       <c r="F24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="20"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="1" t="s">
         <v>60</v>
       </c>
@@ -1533,13 +1548,13 @@
       <c r="F25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="20"/>
     </row>
     <row r="26" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="1" t="s">
         <v>77</v>
       </c>
@@ -1555,16 +1570,18 @@
       <c r="F26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="20"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
+      <c r="A27" s="5"/>
+      <c r="H27" s="21"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="17" t="s">
         <v>89</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1579,23 +1596,23 @@
       <c r="F28" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="20">
         <f>9/111</f>
         <v>8.1081081081081086E-2</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="16">
         <v>9</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="20">
         <f>9/111</f>
         <v>8.1081081081081086E-2</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="1" t="s">
         <v>81</v>
       </c>
@@ -1608,13 +1625,13 @@
       <c r="F29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="20"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="1" t="s">
         <v>82</v>
       </c>
@@ -1627,13 +1644,13 @@
       <c r="F30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="20"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="1" t="s">
         <v>83</v>
       </c>
@@ -1646,16 +1663,16 @@
       <c r="F31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="20"/>
     </row>
     <row r="35" spans="1:10" s="2" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="6"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
         <v>5</v>
@@ -1683,12 +1700,10 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="J19:J26"/>
-    <mergeCell ref="I19:I26"/>
-    <mergeCell ref="J11:J17"/>
-    <mergeCell ref="I11:I17"/>
+    <mergeCell ref="J3:J9"/>
+    <mergeCell ref="I3:I9"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A3:A9"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="G3:G9"/>
     <mergeCell ref="G11:G17"/>
@@ -1700,10 +1715,12 @@
     <mergeCell ref="H3:H9"/>
     <mergeCell ref="A11:A17"/>
     <mergeCell ref="A19:A26"/>
-    <mergeCell ref="J3:J9"/>
-    <mergeCell ref="I3:I9"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="J19:J26"/>
+    <mergeCell ref="I19:I26"/>
+    <mergeCell ref="J11:J17"/>
+    <mergeCell ref="I11:I17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
